--- a/Data_LCI/LCI_modelling_step2.xlsx
+++ b/Data_LCI/LCI_modelling_step2.xlsx
@@ -1,25 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippea\Desktop\Impmet_LCI_auto - Copie\Data_LCI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A387576-4F3D-4325-803F-D179DE7E8ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PR1_LCI_modelling" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>This file is intended to be the second step to the conversion of the LCI file to BW format
+For each production route, in the LCI document a new sheet will be created with the name "PR1/2/3_Commodity_Region/City/Site name_Type of deposit/Type of process", e.g. "PR1_Li2CO3_ChileAtacama_Brines"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,7 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -330,13 +357,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:N8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>